--- a/Parser_xls/Temp/file_xls_sp_trans/template.xlsx
+++ b/Parser_xls/Temp/file_xls_sp_trans/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embarcadero\Projects\MyJob\Parser_xls\Temp\file_xls_sp_trans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95844FB-9C14-44B2-B869-416213ED3B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966CF81F-F8CC-41E3-A334-7A6E55CBDC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{B3EED9FF-8C26-4AA5-982C-E9DD9D8C26FA}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>наименование</t>
-  </si>
-  <si>
     <t>Код ТМЦ</t>
   </si>
   <si>
     <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Наименование</t>
   </si>
 </sst>
 </file>
@@ -67,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,15 +75,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF081AB-520B-4E13-9E2B-0FBA26F14ECE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,14 +433,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
